--- a/Application_MES/base_final.xlsx
+++ b/Application_MES/base_final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elias\Desktop\Application_MES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{541A7010-CA16-4779-8551-8ED6619AF36F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B109AE9E-2408-426B-92F5-0833867261D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{ED826D2F-1D94-4353-A659-8FB4A7AC7B11}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="29">
   <si>
     <t>Années</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>TIMP(%)</t>
+  </si>
+  <si>
+    <t>TIM(%)</t>
   </si>
 </sst>
 </file>
@@ -2196,10 +2199,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9613EDAF-AF77-42F5-9982-38B54082C7B7}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AB19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection sqref="A1:AB19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2212,7 +2215,1642 @@
     <col min="7" max="7" width="10.42578125" customWidth="1"/>
     <col min="8" max="8" width="7.7109375" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2006</v>
+      </c>
+      <c r="B2">
+        <v>2748457713.360774</v>
+      </c>
+      <c r="C2">
+        <v>49.180712659999998</v>
+      </c>
+      <c r="D2">
+        <v>55.570496869999999</v>
+      </c>
+      <c r="E2">
+        <v>7.7049176065876708</v>
+      </c>
+      <c r="F2">
+        <v>4.4158998416956097</v>
+      </c>
+      <c r="G2">
+        <v>8.0239999999999991</v>
+      </c>
+      <c r="H2">
+        <v>7324801138.9008904</v>
+      </c>
+      <c r="I2">
+        <v>4651757606.4262838</v>
+      </c>
+      <c r="J2">
+        <v>20.616113744075825</v>
+      </c>
+      <c r="K2">
+        <v>4.1121844803504315</v>
+      </c>
+      <c r="L2">
+        <v>12.744087380393573</v>
+      </c>
+      <c r="M2">
+        <v>312244750000</v>
+      </c>
+      <c r="N2">
+        <v>6864808136.419446</v>
+      </c>
+      <c r="O2">
+        <v>4310177559.1856928</v>
+      </c>
+      <c r="P2">
+        <v>522.42562489517604</v>
+      </c>
+      <c r="Q2">
+        <v>239346661.9467456</v>
+      </c>
+      <c r="R2">
+        <v>18310000</v>
+      </c>
+      <c r="S2">
+        <v>5.5107181411607503E-2</v>
+      </c>
+      <c r="T2">
+        <v>5.5107181411607504</v>
+      </c>
+      <c r="U2">
+        <v>4.3932073419648576</v>
+      </c>
+      <c r="V2">
+        <v>80.899475599842901</v>
+      </c>
+      <c r="W2">
+        <v>35424269.84178894</v>
+      </c>
+      <c r="X2">
+        <v>-44.125191205478558</v>
+      </c>
+      <c r="Y2">
+        <v>35.566575412228843</v>
+      </c>
+      <c r="Z2">
+        <v>26.897553780235718</v>
+      </c>
+      <c r="AA2">
+        <v>-0.70515389681047924</v>
+      </c>
+      <c r="AB2">
+        <v>16.425181404381391</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2007</v>
+      </c>
+      <c r="B3">
+        <v>3876773163.0407848</v>
+      </c>
+      <c r="C3">
+        <v>9.7333307980000008</v>
+      </c>
+      <c r="D3">
+        <v>29.144114649999999</v>
+      </c>
+      <c r="E3">
+        <v>15.282113919485724</v>
+      </c>
+      <c r="F3">
+        <v>2.8037383177570399</v>
+      </c>
+      <c r="G3">
+        <v>7.9740000000000002</v>
+      </c>
+      <c r="H3">
+        <v>9508983305.3322277</v>
+      </c>
+      <c r="I3">
+        <v>5641596705.6345234</v>
+      </c>
+      <c r="J3">
+        <v>13.097576948264573</v>
+      </c>
+      <c r="K3">
+        <v>4.2352652532784782</v>
+      </c>
+      <c r="L3">
+        <v>40.367692331096038</v>
+      </c>
+      <c r="M3">
+        <v>438290750000</v>
+      </c>
+      <c r="N3">
+        <v>8508387370.8222694</v>
+      </c>
+      <c r="O3">
+        <v>6075188133.8819923</v>
+      </c>
+      <c r="P3">
+        <v>478.63371847636301</v>
+      </c>
+      <c r="Q3">
+        <v>366357527.79036641</v>
+      </c>
+      <c r="R3">
+        <v>26570000</v>
+      </c>
+      <c r="S3">
+        <v>5.3469752334551361E-2</v>
+      </c>
+      <c r="T3">
+        <v>5.3469752334551357</v>
+      </c>
+      <c r="U3">
+        <v>4.4208588732953675</v>
+      </c>
+      <c r="V3">
+        <v>83.167685196100194</v>
+      </c>
+      <c r="W3">
+        <v>54485309.643814258</v>
+      </c>
+      <c r="X3">
+        <v>53.807855143254315</v>
+      </c>
+      <c r="Y3">
+        <v>53.065651641250213</v>
+      </c>
+      <c r="Z3">
+        <v>41.052676349905461</v>
+      </c>
+      <c r="AA3">
+        <v>23.942100081184254</v>
+      </c>
+      <c r="AB3">
+        <v>40.949834443241755</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2008</v>
+      </c>
+      <c r="B4">
+        <v>4707845452.2612982</v>
+      </c>
+      <c r="C4">
+        <v>32.198177899999997</v>
+      </c>
+      <c r="D4">
+        <v>42.273475859999998</v>
+      </c>
+      <c r="E4">
+        <v>17.799109133381137</v>
+      </c>
+      <c r="F4">
+        <v>6.5517669118453501</v>
+      </c>
+      <c r="G4">
+        <v>7.9429999999999996</v>
+      </c>
+      <c r="H4">
+        <v>15267150701.432074</v>
+      </c>
+      <c r="I4">
+        <v>9827684040.3630772</v>
+      </c>
+      <c r="J4">
+        <v>36.725535610885935</v>
+      </c>
+      <c r="K4">
+        <v>4.5480705939475188</v>
+      </c>
+      <c r="L4">
+        <v>30.679235188057241</v>
+      </c>
+      <c r="M4">
+        <v>572755000000</v>
+      </c>
+      <c r="N4">
+        <v>9817168522.2881699</v>
+      </c>
+      <c r="O4">
+        <v>7304259443.8482618</v>
+      </c>
+      <c r="P4">
+        <v>446.00004143278801</v>
+      </c>
+      <c r="Q4">
+        <v>809537091.23139024</v>
+      </c>
+      <c r="R4">
+        <v>23450000</v>
+      </c>
+      <c r="S4">
+        <v>5.1942886565516731E-2</v>
+      </c>
+      <c r="T4">
+        <v>5.1942886565516728</v>
+      </c>
+      <c r="U4">
+        <v>4.4843196286505433</v>
+      </c>
+      <c r="V4">
+        <v>88.616638076125994</v>
+      </c>
+      <c r="W4">
+        <v>-15515671.654623101</v>
+      </c>
+      <c r="X4">
+        <v>-128.47679816092338</v>
+      </c>
+      <c r="Y4">
+        <v>120.96914347959455</v>
+      </c>
+      <c r="Z4">
+        <v>21.437217352398655</v>
+      </c>
+      <c r="AA4">
+        <v>15.382246886808314</v>
+      </c>
+      <c r="AB4">
+        <v>20.230999976965382</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2009</v>
+      </c>
+      <c r="B5">
+        <v>6695908695.7426291</v>
+      </c>
+      <c r="C5">
+        <v>-21.868014110000001</v>
+      </c>
+      <c r="D5">
+        <v>60.72388771</v>
+      </c>
+      <c r="E5">
+        <v>1.3433562880609458</v>
+      </c>
+      <c r="F5">
+        <v>4.69106567747375</v>
+      </c>
+      <c r="G5">
+        <v>8.0980000000000008</v>
+      </c>
+      <c r="H5">
+        <v>9898082600.0246086</v>
+      </c>
+      <c r="I5">
+        <v>3978209448.2622643</v>
+      </c>
+      <c r="J5">
+        <v>-35.35203811540498</v>
+      </c>
+      <c r="K5">
+        <v>4.1118569873067319</v>
+      </c>
+      <c r="L5">
+        <v>23.962252621103264</v>
+      </c>
+      <c r="M5">
+        <v>710000000000</v>
+      </c>
+      <c r="N5">
+        <v>9216597119.0211563</v>
+      </c>
+      <c r="O5">
+        <v>6555760979.3107557</v>
+      </c>
+      <c r="P5">
+        <v>470.29342334139801</v>
+      </c>
+      <c r="Q5">
+        <v>797706329.04851317</v>
+      </c>
+      <c r="R5">
+        <v>17240000</v>
+      </c>
+      <c r="S5">
+        <v>5.02602701181767E-2</v>
+      </c>
+      <c r="T5">
+        <v>5.0260270118176704</v>
+      </c>
+      <c r="U5">
+        <v>4.5301632243045367</v>
+      </c>
+      <c r="V5">
+        <v>92.773702769446302</v>
+      </c>
+      <c r="W5">
+        <v>114154095.53390262</v>
+      </c>
+      <c r="X5">
+        <v>-835.73415366706843</v>
+      </c>
+      <c r="Y5">
+        <v>-1.4614231158798718</v>
+      </c>
+      <c r="Z5">
+        <v>42.228727846756598</v>
+      </c>
+      <c r="AA5">
+        <v>-6.1175623287256489</v>
+      </c>
+      <c r="AB5">
+        <v>-10.24742440067488</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2010</v>
+      </c>
+      <c r="B6">
+        <v>5358573888.5531254</v>
+      </c>
+      <c r="C6">
+        <v>-9.7922633139999995</v>
+      </c>
+      <c r="D6">
+        <v>-10.986787980000001</v>
+      </c>
+      <c r="E6">
+        <v>-8.9241758885180644</v>
+      </c>
+      <c r="F6">
+        <v>7.7891654799118397</v>
+      </c>
+      <c r="G6">
+        <v>8.2919999999999998</v>
+      </c>
+      <c r="H6">
+        <v>10588879868.619009</v>
+      </c>
+      <c r="I6">
+        <v>4380206413.953927</v>
+      </c>
+      <c r="J6">
+        <v>26.842450049132001</v>
+      </c>
+      <c r="K6">
+        <v>4.3496325668628772</v>
+      </c>
+      <c r="L6">
+        <v>27.887323943661972</v>
+      </c>
+      <c r="M6">
+        <v>908000000000</v>
+      </c>
+      <c r="N6">
+        <v>9201944100.105032</v>
+      </c>
+      <c r="O6">
+        <v>8491037400.1713552</v>
+      </c>
+      <c r="P6">
+        <v>494.794262222947</v>
+      </c>
+      <c r="Q6">
+        <v>989787145.10638368</v>
+      </c>
+      <c r="R6">
+        <v>75880000</v>
+      </c>
+      <c r="S6">
+        <v>4.828204011921905E-2</v>
+      </c>
+      <c r="T6">
+        <v>4.8282040119219047</v>
+      </c>
+      <c r="U6">
+        <v>4.6051701859880918</v>
+      </c>
+      <c r="V6">
+        <v>100</v>
+      </c>
+      <c r="W6">
+        <v>55809054.632893056</v>
+      </c>
+      <c r="X6">
+        <v>-51.110773229929073</v>
+      </c>
+      <c r="Y6">
+        <v>24.079139034408858</v>
+      </c>
+      <c r="Z6">
+        <v>-19.972417008012723</v>
+      </c>
+      <c r="AA6">
+        <v>-0.15898513005286444</v>
+      </c>
+      <c r="AB6">
+        <v>29.520240700783852</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2011</v>
+      </c>
+      <c r="B7">
+        <v>7078164315.8909883</v>
+      </c>
+      <c r="C7">
+        <v>32.455558799999999</v>
+      </c>
+      <c r="D7">
+        <v>9.940032016</v>
+      </c>
+      <c r="E7">
+        <v>6.5239236298987322</v>
+      </c>
+      <c r="F7">
+        <v>4.8053892215570002</v>
+      </c>
+      <c r="G7">
+        <v>8.234</v>
+      </c>
+      <c r="H7">
+        <v>14493638014.129723</v>
+      </c>
+      <c r="I7">
+        <v>7648765006.6909695</v>
+      </c>
+      <c r="J7">
+        <v>38.747579083279518</v>
+      </c>
+      <c r="K7">
+        <v>4.677118685300675</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>908000000000</v>
+      </c>
+      <c r="N7">
+        <v>8216879567.4432192</v>
+      </c>
+      <c r="O7">
+        <v>6845239551.452836</v>
+      </c>
+      <c r="P7">
+        <v>471.24862571893698</v>
+      </c>
+      <c r="Q7">
+        <v>1365512734.6726737</v>
+      </c>
+      <c r="R7">
+        <v>24010000</v>
+      </c>
+      <c r="S7">
+        <v>4.5991699344839244E-2</v>
+      </c>
+      <c r="T7">
+        <v>4.5991699344839247</v>
+      </c>
+      <c r="U7">
+        <v>4.6521051944345988</v>
+      </c>
+      <c r="V7">
+        <v>104.80538922155699</v>
+      </c>
+      <c r="W7">
+        <v>-53909971.506208695</v>
+      </c>
+      <c r="X7">
+        <v>-196.59717739500093</v>
+      </c>
+      <c r="Y7">
+        <v>37.960241393709602</v>
+      </c>
+      <c r="Z7">
+        <v>32.090449121383138</v>
+      </c>
+      <c r="AA7">
+        <v>-10.704961059810927</v>
+      </c>
+      <c r="AB7">
+        <v>-19.382765275363241</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2012</v>
+      </c>
+      <c r="B8">
+        <v>8814625376.5414906</v>
+      </c>
+      <c r="C8">
+        <v>12.13329173</v>
+      </c>
+      <c r="D8">
+        <v>45.40924562</v>
+      </c>
+      <c r="E8">
+        <v>8.31287184445641</v>
+      </c>
+      <c r="F8">
+        <v>3.65662048278806</v>
+      </c>
+      <c r="G8">
+        <v>8.1159999999999997</v>
+      </c>
+      <c r="H8">
+        <v>15287366778.316246</v>
+      </c>
+      <c r="I8">
+        <v>6074978937.9756956</v>
+      </c>
+      <c r="J8">
+        <v>1.8518518518518605</v>
+      </c>
+      <c r="K8">
+        <v>4.6954678239688716</v>
+      </c>
+      <c r="L8">
+        <v>59.581497797356832</v>
+      </c>
+      <c r="M8">
+        <v>1449000000000</v>
+      </c>
+      <c r="N8">
+        <v>8597227226.8770695</v>
+      </c>
+      <c r="O8">
+        <v>8475079773.4098415</v>
+      </c>
+      <c r="P8">
+        <v>510.55633845425098</v>
+      </c>
+      <c r="Q8">
+        <v>1078523483.142031</v>
+      </c>
+      <c r="R8">
+        <v>7860000</v>
+      </c>
+      <c r="S8">
+        <v>4.3137214978531922E-2</v>
+      </c>
+      <c r="T8">
+        <v>4.3137214978531926</v>
+      </c>
+      <c r="U8">
+        <v>4.6880187187355347</v>
+      </c>
+      <c r="V8">
+        <v>108.637724550898</v>
+      </c>
+      <c r="W8">
+        <v>-65579442.478686847</v>
+      </c>
+      <c r="X8">
+        <v>21.646219885562736</v>
+      </c>
+      <c r="Y8">
+        <v>-21.016958995950834</v>
+      </c>
+      <c r="Z8">
+        <v>24.532646928696217</v>
+      </c>
+      <c r="AA8">
+        <v>4.6288576619871282</v>
+      </c>
+      <c r="AB8">
+        <v>23.809834699080586</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2013</v>
+      </c>
+      <c r="B9">
+        <v>8571081448.6784172</v>
+      </c>
+      <c r="C9">
+        <v>-15.65782184</v>
+      </c>
+      <c r="D9">
+        <v>-17.257934630000001</v>
+      </c>
+      <c r="E9">
+        <v>-4.1331985013158317</v>
+      </c>
+      <c r="F9">
+        <v>2.94887694639662</v>
+      </c>
+      <c r="G9">
+        <v>8.0389999999999997</v>
+      </c>
+      <c r="H9">
+        <v>12888661360.87603</v>
+      </c>
+      <c r="I9">
+        <v>6236398754.5777111</v>
+      </c>
+      <c r="J9">
+        <v>-3.2708999543170378</v>
+      </c>
+      <c r="K9">
+        <v>4.6622119263552886</v>
+      </c>
+      <c r="L9">
+        <v>6.2111801242236027</v>
+      </c>
+      <c r="M9">
+        <v>1539000000000</v>
+      </c>
+      <c r="N9">
+        <v>7945283259.4516516</v>
+      </c>
+      <c r="O9">
+        <v>6978092471.7267933</v>
+      </c>
+      <c r="P9">
+        <v>493.89962385223703</v>
+      </c>
+      <c r="Q9">
+        <v>1501768707.5623286</v>
+      </c>
+      <c r="R9">
+        <v>7540000</v>
+      </c>
+      <c r="S9">
+        <v>4.1529017366990516E-2</v>
+      </c>
+      <c r="T9">
+        <v>4.1529017366990519</v>
+      </c>
+      <c r="U9">
+        <v>4.717081057433206</v>
+      </c>
+      <c r="V9">
+        <v>111.84131736527</v>
+      </c>
+      <c r="W9">
+        <v>25379650.825569365</v>
+      </c>
+      <c r="X9">
+        <v>-138.70061999050648</v>
+      </c>
+      <c r="Y9">
+        <v>39.243023544306119</v>
+      </c>
+      <c r="Z9">
+        <v>-2.7629526776171436</v>
+      </c>
+      <c r="AA9">
+        <v>-7.5831887447068871</v>
+      </c>
+      <c r="AB9">
+        <v>-17.663400719598823</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2014</v>
+      </c>
+      <c r="B10">
+        <v>7783590648.6720943</v>
+      </c>
+      <c r="C10">
+        <v>-3.0032464760000002</v>
+      </c>
+      <c r="D10">
+        <v>2.5962044639999999</v>
+      </c>
+      <c r="E10">
+        <v>0.41506630159686608</v>
+      </c>
+      <c r="F10">
+        <v>4.3099986614910701</v>
+      </c>
+      <c r="G10">
+        <v>8.0440000000000005</v>
+      </c>
+      <c r="H10">
+        <v>12244521007.921036</v>
+      </c>
+      <c r="I10">
+        <v>5995811748.2529316</v>
+      </c>
+      <c r="J10">
+        <v>-9.0488334750165276</v>
+      </c>
+      <c r="K10">
+        <v>4.5673644712521924</v>
+      </c>
+      <c r="L10">
+        <v>-15.854450942170239</v>
+      </c>
+      <c r="M10">
+        <v>1295000000000</v>
+      </c>
+      <c r="N10">
+        <v>7984810647.2301397</v>
+      </c>
+      <c r="O10">
+        <v>6584323927.0563164</v>
+      </c>
+      <c r="P10">
+        <v>493.757329875312</v>
+      </c>
+      <c r="Q10">
+        <v>1759659952.7950299</v>
+      </c>
+      <c r="R10">
+        <v>7280000</v>
+      </c>
+      <c r="S10">
+        <v>3.9905921818594967E-2</v>
+      </c>
+      <c r="T10">
+        <v>3.9905921818594967</v>
+      </c>
+      <c r="U10">
+        <v>4.7592780933009644</v>
+      </c>
+      <c r="V10">
+        <v>116.66167664670699</v>
+      </c>
+      <c r="W10">
+        <v>140654114.44119725</v>
+      </c>
+      <c r="X10">
+        <v>454.20035290435015</v>
+      </c>
+      <c r="Y10">
+        <v>17.172500927343894</v>
+      </c>
+      <c r="Z10">
+        <v>-9.1877647496599941</v>
+      </c>
+      <c r="AA10">
+        <v>0.49749501040717042</v>
+      </c>
+      <c r="AB10">
+        <v>-5.6429252874752356</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2015</v>
+      </c>
+      <c r="B11">
+        <v>6160641904.6598701</v>
+      </c>
+      <c r="C11">
+        <v>-20.922007069999999</v>
+      </c>
+      <c r="D11">
+        <v>-4.9308579769999996</v>
+      </c>
+      <c r="E11">
+        <v>-9.1100411488153696</v>
+      </c>
+      <c r="F11">
+        <v>1.6766308531598799</v>
+      </c>
+      <c r="G11">
+        <v>8.1780000000000008</v>
+      </c>
+      <c r="H11">
+        <v>5160848491.8713503</v>
+      </c>
+      <c r="I11">
+        <v>1903839189.5960085</v>
+      </c>
+      <c r="J11">
+        <v>-48.60317790009347</v>
+      </c>
+      <c r="K11">
+        <v>3.9017706289637948</v>
+      </c>
+      <c r="L11">
+        <v>-7.0270270270270272</v>
+      </c>
+      <c r="M11">
+        <v>1204000000000</v>
+      </c>
+      <c r="N11">
+        <v>7470701298.6065788</v>
+      </c>
+      <c r="O11">
+        <v>5566862109.0105705</v>
+      </c>
+      <c r="P11">
+        <v>591.21169798260996</v>
+      </c>
+      <c r="Q11">
+        <v>1646828036.8836679</v>
+      </c>
+      <c r="R11">
+        <v>8990000</v>
+      </c>
+      <c r="S11">
+        <v>3.7894727357100699E-2</v>
+      </c>
+      <c r="T11">
+        <v>3.7894727357100697</v>
+      </c>
+      <c r="U11">
+        <v>4.7759053988414006</v>
+      </c>
+      <c r="V11">
+        <v>118.617662311179</v>
+      </c>
+      <c r="W11">
+        <v>165292035.03683043</v>
+      </c>
+      <c r="X11">
+        <v>17.516672507958141</v>
+      </c>
+      <c r="Y11">
+        <v>-6.4121431946064709</v>
+      </c>
+      <c r="Z11">
+        <v>-20.850900532508149</v>
+      </c>
+      <c r="AA11">
+        <v>-6.4385916127128313</v>
+      </c>
+      <c r="AB11">
+        <v>-15.452791043052876</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2016</v>
+      </c>
+      <c r="B12">
+        <v>3173291155.913166</v>
+      </c>
+      <c r="C12">
+        <v>-45.366868160000003</v>
+      </c>
+      <c r="D12">
+        <v>-42.170516370000001</v>
+      </c>
+      <c r="E12">
+        <v>-8.8164172321975656</v>
+      </c>
+      <c r="F12">
+        <v>1.4119391547901501</v>
+      </c>
+      <c r="G12">
+        <v>8.2319999999999993</v>
+      </c>
+      <c r="H12">
+        <v>3026428361.4659982</v>
+      </c>
+      <c r="I12">
+        <v>1149364742.3506105</v>
+      </c>
+      <c r="J12">
+        <v>-17.639927258031932</v>
+      </c>
+      <c r="K12">
+        <v>3.707701208354524</v>
+      </c>
+      <c r="L12">
+        <v>-21.013289036544851</v>
+      </c>
+      <c r="M12">
+        <v>951000000000</v>
+      </c>
+      <c r="N12">
+        <v>6800281604.294836</v>
+      </c>
+      <c r="O12">
+        <v>4660217893.456213</v>
+      </c>
+      <c r="P12">
+        <v>592.60561506302201</v>
+      </c>
+      <c r="Q12">
+        <v>1674860944.4073527</v>
+      </c>
+      <c r="R12">
+        <v>10440000</v>
+      </c>
+      <c r="S12">
+        <v>3.6526340463953325E-2</v>
+      </c>
+      <c r="T12">
+        <v>3.6526340463953324</v>
+      </c>
+      <c r="U12">
+        <v>4.7899260402230963</v>
+      </c>
+      <c r="V12">
+        <v>120.29247152984701</v>
+      </c>
+      <c r="W12">
+        <v>166866458.05743843</v>
+      </c>
+      <c r="X12">
+        <v>0.95250991389705764</v>
+      </c>
+      <c r="Y12">
+        <v>1.7022364749589811</v>
+      </c>
+      <c r="Z12">
+        <v>-48.490900704471898</v>
+      </c>
+      <c r="AA12">
+        <v>-8.9739860759362458</v>
+      </c>
+      <c r="AB12">
+        <v>-16.286450028766751</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2017</v>
+      </c>
+      <c r="B13">
+        <v>3883235152.43084</v>
+      </c>
+      <c r="C13">
+        <v>6.740716741</v>
+      </c>
+      <c r="D13">
+        <v>-26.08856909</v>
+      </c>
+      <c r="E13">
+        <v>-5.6675085048668592</v>
+      </c>
+      <c r="F13">
+        <v>0.74435474661240997</v>
+      </c>
+      <c r="G13">
+        <v>8.3290000000000006</v>
+      </c>
+      <c r="H13">
+        <v>3578487634.9065089</v>
+      </c>
+      <c r="I13">
+        <v>1866489970.1932337</v>
+      </c>
+      <c r="J13">
+        <v>28.631010794896966</v>
+      </c>
+      <c r="K13">
+        <v>3.9594789465844413</v>
+      </c>
+      <c r="L13">
+        <v>-5.1524710830704521</v>
+      </c>
+      <c r="M13">
+        <v>902000000000</v>
+      </c>
+      <c r="N13">
+        <v>6544533427.647769</v>
+      </c>
+      <c r="O13">
+        <v>5048397235.5659218</v>
+      </c>
+      <c r="P13">
+        <v>580.65674958785803</v>
+      </c>
+      <c r="Q13">
+        <v>1716874900.7051067</v>
+      </c>
+      <c r="R13">
+        <v>10240000</v>
+      </c>
+      <c r="S13">
+        <v>3.4252928920670486E-2</v>
+      </c>
+      <c r="T13">
+        <v>3.4252928920670485</v>
+      </c>
+      <c r="U13">
+        <v>4.7973420212002438</v>
+      </c>
+      <c r="V13">
+        <v>121.18787425149701</v>
+      </c>
+      <c r="W13">
+        <v>138539679.42334262</v>
+      </c>
+      <c r="X13">
+        <v>-16.975717567124985</v>
+      </c>
+      <c r="Y13">
+        <v>2.5085041500338185</v>
+      </c>
+      <c r="Z13">
+        <v>22.372482121432569</v>
+      </c>
+      <c r="AA13">
+        <v>-3.7608468520707268</v>
+      </c>
+      <c r="AB13">
+        <v>8.3296393212596911</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2018</v>
+      </c>
+      <c r="B14">
+        <v>3847190711.5826445</v>
+      </c>
+      <c r="C14">
+        <v>20.01776529</v>
+      </c>
+      <c r="D14">
+        <v>3.6759277909999999</v>
+      </c>
+      <c r="E14">
+        <v>-6.2365440673457471</v>
+      </c>
+      <c r="F14">
+        <v>1.0600741066217101</v>
+      </c>
+      <c r="G14">
+        <v>8.2560000000000002</v>
+      </c>
+      <c r="H14">
+        <v>3678280724.5842586</v>
+      </c>
+      <c r="I14">
+        <v>2040958194.3899982</v>
+      </c>
+      <c r="J14">
+        <v>33.091741369444975</v>
+      </c>
+      <c r="K14">
+        <v>4.2453474357586281</v>
+      </c>
+      <c r="L14">
+        <v>-0.77605321507760539</v>
+      </c>
+      <c r="M14">
+        <v>895000000000</v>
+      </c>
+      <c r="N14">
+        <v>6173975527.938632</v>
+      </c>
+      <c r="O14">
+        <v>5361254746.6041498</v>
+      </c>
+      <c r="P14">
+        <v>555.44645839822601</v>
+      </c>
+      <c r="Q14">
+        <v>1852515188.7817063</v>
+      </c>
+      <c r="R14">
+        <v>8420000</v>
+      </c>
+      <c r="S14">
+        <v>3.3442459654642528E-2</v>
+      </c>
+      <c r="T14">
+        <v>3.3442459654642529</v>
+      </c>
+      <c r="U14">
+        <v>4.8078869683689502</v>
+      </c>
+      <c r="V14">
+        <v>122.472555526802</v>
+      </c>
+      <c r="W14">
+        <v>124089368.124119</v>
+      </c>
+      <c r="X14">
+        <v>-10.430449499646292</v>
+      </c>
+      <c r="Y14">
+        <v>7.9004176728830515</v>
+      </c>
+      <c r="Z14">
+        <v>-0.92820649364054963</v>
+      </c>
+      <c r="AA14">
+        <v>-5.662098051844203</v>
+      </c>
+      <c r="AB14">
+        <v>6.1971650890335876</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2019</v>
+      </c>
+      <c r="B15">
+        <v>2989835158.9470687</v>
+      </c>
+      <c r="C15">
+        <v>-14.23941933</v>
+      </c>
+      <c r="D15">
+        <v>-22.278293300000001</v>
+      </c>
+      <c r="E15">
+        <v>-5.4818253789344453</v>
+      </c>
+      <c r="F15">
+        <v>1.5302752896418901</v>
+      </c>
+      <c r="G15">
+        <v>8.3670000000000009</v>
+      </c>
+      <c r="H15">
+        <v>2076728330.7576263</v>
+      </c>
+      <c r="I15">
+        <v>838980645.68381822</v>
+      </c>
+      <c r="J15">
+        <v>-8.2258526798509521</v>
+      </c>
+      <c r="K15">
+        <v>4.1595078881285144</v>
+      </c>
+      <c r="L15">
+        <v>-7.2625698324022352</v>
+      </c>
+      <c r="M15">
+        <v>830000000000</v>
+      </c>
+      <c r="N15">
+        <v>5339449104.4803915</v>
+      </c>
+      <c r="O15">
+        <v>4758699725.6875095</v>
+      </c>
+      <c r="P15">
+        <v>585.91101318036897</v>
+      </c>
+      <c r="Q15">
+        <v>1726900463.6374705</v>
+      </c>
+      <c r="R15">
+        <v>11250000</v>
+      </c>
+      <c r="S15">
+        <v>3.3502402824224543E-2</v>
+      </c>
+      <c r="T15">
+        <v>3.3502402824224542</v>
+      </c>
+      <c r="U15">
+        <v>4.823073815102136</v>
+      </c>
+      <c r="V15">
+        <v>124.346722780622</v>
+      </c>
+      <c r="W15">
+        <v>134935166.34069481</v>
+      </c>
+      <c r="X15">
+        <v>8.7403122286249602</v>
+      </c>
+      <c r="Y15">
+        <v>-6.7807662741402677</v>
+      </c>
+      <c r="Z15">
+        <v>-22.285236602759412</v>
+      </c>
+      <c r="AA15">
+        <v>-13.516840481174896</v>
+      </c>
+      <c r="AB15">
+        <v>-11.239067147449058</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2020</v>
+      </c>
+      <c r="B16">
+        <v>2657976385.3424096</v>
+      </c>
+      <c r="C16">
+        <v>-33.855121169999997</v>
+      </c>
+      <c r="D16">
+        <v>-17.116225629999999</v>
+      </c>
+      <c r="E16">
+        <v>-4.791080833832936</v>
+      </c>
+      <c r="F16">
+        <v>4.7666952394422797</v>
+      </c>
+      <c r="G16">
+        <v>9.0749999999999993</v>
+      </c>
+      <c r="H16">
+        <v>1063731614.0096214</v>
+      </c>
+      <c r="I16">
+        <v>372305785.99630821</v>
+      </c>
+      <c r="J16">
+        <v>-35.243597751405382</v>
+      </c>
+      <c r="K16">
+        <v>3.7249702742582897</v>
+      </c>
+      <c r="L16">
+        <v>-5.0602409638554215</v>
+      </c>
+      <c r="M16">
+        <v>788000000000</v>
+      </c>
+      <c r="N16">
+        <v>4905658000.7762203</v>
+      </c>
+      <c r="O16">
+        <v>3708685981.3758106</v>
+      </c>
+      <c r="P16">
+        <v>575.58600451094503</v>
+      </c>
+      <c r="Q16">
+        <v>1267886977.203346</v>
+      </c>
+      <c r="R16">
+        <v>8600000</v>
+      </c>
+      <c r="S16">
+        <v>-2.0857107111850799E-2</v>
+      </c>
+      <c r="T16">
+        <v>-2.0857107111850808</v>
+      </c>
+      <c r="U16">
+        <v>4.8696395569771509</v>
+      </c>
+      <c r="V16">
+        <v>130.273952095808</v>
+      </c>
+      <c r="W16">
+        <v>133505678.26957501</v>
+      </c>
+      <c r="X16">
+        <v>-1.0593888234520847</v>
+      </c>
+      <c r="Y16">
+        <v>-26.58019359536668</v>
+      </c>
+      <c r="Z16">
+        <v>-11.099567566846391</v>
+      </c>
+      <c r="AA16">
+        <v>-8.1242670398369778</v>
+      </c>
+      <c r="AB16">
+        <v>-22.065139740667266</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2021</v>
+      </c>
+      <c r="B17">
+        <v>3284683614.8683691</v>
+      </c>
+      <c r="C17">
+        <v>26.866056969999999</v>
+      </c>
+      <c r="D17">
+        <v>-6.7562074369999996</v>
+      </c>
+      <c r="E17">
+        <v>0.86026995638206927</v>
+      </c>
+      <c r="F17">
+        <v>-9.71007664640198E-2</v>
+      </c>
+      <c r="G17">
+        <v>9.1940000000000008</v>
+      </c>
+      <c r="H17">
+        <v>2630720260.876461</v>
+      </c>
+      <c r="I17">
+        <v>1623301271.8367655</v>
+      </c>
+      <c r="J17">
+        <v>68.531468531468548</v>
+      </c>
+      <c r="K17">
+        <v>4.2469225774890376</v>
+      </c>
+      <c r="L17">
+        <v>-0.63451776649746194</v>
+      </c>
+      <c r="M17">
+        <v>783000000000</v>
+      </c>
+      <c r="N17">
+        <v>4654926601.0455914</v>
+      </c>
+      <c r="O17">
+        <v>3581265470.6127653</v>
+      </c>
+      <c r="P17">
+        <v>554.53067503310399</v>
+      </c>
+      <c r="Q17">
+        <v>1271275029.1045666</v>
+      </c>
+      <c r="R17">
+        <v>14650000</v>
+      </c>
+      <c r="S17">
+        <v>3.7096908461897359E-2</v>
+      </c>
+      <c r="T17">
+        <v>3.7096908461897358</v>
+      </c>
+      <c r="U17">
+        <v>4.868668077579172</v>
+      </c>
+      <c r="V17">
+        <v>130.14745508982</v>
+      </c>
+      <c r="W17">
+        <v>126795979.32071117</v>
+      </c>
+      <c r="X17">
+        <v>-5.0257779562870777</v>
+      </c>
+      <c r="Y17">
+        <v>0.26722034078256629</v>
+      </c>
+      <c r="Z17">
+        <v>23.578359573921681</v>
+      </c>
+      <c r="AA17">
+        <v>-5.1110656244474413</v>
+      </c>
+      <c r="AB17">
+        <v>-3.4357319924879741</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2022</v>
+      </c>
+      <c r="B18">
+        <v>4174635206.5339622</v>
+      </c>
+      <c r="C18">
+        <v>117.0819783</v>
+      </c>
+      <c r="D18">
+        <v>15.54475324</v>
+      </c>
+      <c r="E18">
+        <v>3.7160105935475087</v>
+      </c>
+      <c r="F18">
+        <v>4.7867170471080298</v>
+      </c>
+      <c r="G18">
+        <v>8.7460000000000004</v>
+      </c>
+      <c r="H18">
+        <v>4265082201.2626319</v>
+      </c>
+      <c r="I18">
+        <v>3058656296.8741713</v>
+      </c>
+      <c r="J18">
+        <v>43.196451566747747</v>
+      </c>
+      <c r="K18">
+        <v>4.6059698661586559</v>
+      </c>
+      <c r="L18">
+        <v>21.984163473818647</v>
+      </c>
+      <c r="M18">
+        <v>955136000000</v>
+      </c>
+      <c r="N18">
+        <v>5006491949.6540327</v>
+      </c>
+      <c r="O18">
+        <v>4078947159.8539705</v>
+      </c>
+      <c r="P18">
+        <v>623.75970091118199</v>
+      </c>
+      <c r="Q18">
+        <v>1100215353.6045768</v>
+      </c>
+      <c r="R18">
+        <v>12450000</v>
+      </c>
+      <c r="S18">
+        <v>6.7233400721671235E-2</v>
+      </c>
+      <c r="T18">
+        <v>6.7233400721671233</v>
+      </c>
+      <c r="U18">
+        <v>4.9154249097114038</v>
+      </c>
+      <c r="V18">
+        <v>136.37724550898201</v>
+      </c>
+      <c r="W18">
+        <v>156868101.35879555</v>
+      </c>
+      <c r="X18">
+        <v>23.716936608866376</v>
+      </c>
+      <c r="Y18">
+        <v>-13.455756746868309</v>
+      </c>
+      <c r="Z18">
+        <v>27.09398213079518</v>
+      </c>
+      <c r="AA18">
+        <v>7.5525433318212283</v>
+      </c>
+      <c r="AB18">
+        <v>13.896810871048061</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2023</v>
+      </c>
+      <c r="B19">
+        <v>3714642517.9263959</v>
+      </c>
+      <c r="C19">
+        <v>-27.622465850000001</v>
+      </c>
+      <c r="D19">
+        <v>15.147548860000001</v>
+      </c>
+      <c r="E19">
+        <v>-5.6915834643103409</v>
+      </c>
+      <c r="F19">
+        <v>3.9833095721395653</v>
+      </c>
+      <c r="G19">
+        <v>8.6660000000000004</v>
+      </c>
+      <c r="H19">
+        <v>2336596369.1727128</v>
+      </c>
+      <c r="I19">
+        <v>1028409264.3921</v>
+      </c>
+      <c r="J19">
+        <v>-17.116306954436446</v>
+      </c>
+      <c r="K19">
+        <v>4.4182380166364537</v>
+      </c>
+      <c r="L19">
+        <v>8.7255636893594204</v>
+      </c>
+      <c r="M19">
+        <v>1038477000000</v>
+      </c>
+      <c r="N19">
+        <v>4729811007.2604876</v>
+      </c>
+      <c r="O19">
+        <v>4502727923.4810705</v>
+      </c>
+      <c r="P19">
+        <v>606.56975016591696</v>
+      </c>
+      <c r="Q19">
+        <v>722592908.72978759</v>
+      </c>
+      <c r="R19">
+        <v>14839076</v>
+      </c>
+      <c r="S19">
+        <v>3.6556484140782691E-2</v>
+      </c>
+      <c r="T19">
+        <v>3.6556484140782692</v>
+      </c>
+      <c r="U19">
+        <v>4.9491853317800327</v>
+      </c>
+      <c r="V19">
+        <v>141.06</v>
+      </c>
+      <c r="W19">
+        <v>119021221.05495699</v>
+      </c>
+      <c r="X19">
+        <v>-24.126562364182334</v>
+      </c>
+      <c r="Y19">
+        <v>-34.322593630202029</v>
+      </c>
+      <c r="Z19">
+        <v>-11.018751719613855</v>
+      </c>
+      <c r="AA19">
+        <v>-5.5264433694468407</v>
+      </c>
+      <c r="AB19">
+        <v>10.389464413710908</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
